--- a/biology/Biologie cellulaire et moléculaire/Bleu_de_trypan/Bleu_de_trypan.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bleu_de_trypan/Bleu_de_trypan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bleu de trypan est un colorant d'exclusion utilisé pour colorer sélectivement les tissus ou cellules morts. C'est un colorant azoïque.
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bleu de trypan est dérivé de la toluidine (C14H16N2).
 Le bleu de trypan est ainsi nommé parce qu’il tue les trypanosomes, parasites responsables notamment de la maladie du sommeil. Un analogue du bleu de trypan, la suramine, est utilisé en pharmacie contre la trypanosomiase.
@@ -548,12 +562,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principe
-La coloration au bleu de trypan est une méthode de coloration des cellules mortes.
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration au bleu de trypan est une méthode de coloration des cellules mortes.
 C'est un colorant d'exclusion pénétrant les cellules (vivantes et mortes). Une fois dans la cellule, la molécule engendre un mécanisme d'exclusion nécessitant de l'énergie. Ainsi, seules les cellules vivantes possédant une source d'ATP seront capable d'éliminer le colorant par le récepteur d'exclusion des drogues. L'observation au microscope inversé à contraste de phase fera apparaître les cellules mortes en bleues et les cellules vivantes incolores, permettant d'évaluer la viabilité de votre culture.  
-Outre son effet tératogène[5],[6],[7] dangereux pour l'utilisateur, le bleu trypan est également cytotoxique[8],[9] et finira ainsi par colorer la totalité de la population cellulaire après un délai variable en fonction de la lignée considérée, habituellement de l'ordre de plusieurs heures. Il est utilisé par la quasi-totalité des automates de comptage cellulaires actuellement sur le marché, et reste au laboratoire la seule technique de dénombrement manuel utilisable en routine. L'emploi de méthodes par fluorescence (iodure de propidium, DAPI), basées sur le même principe d'exclusion et également génotoxiques est parfois privilégié lorsque les techniques d'imagerie idoines sont disponibles. 
-Utilisation
-Cette méthode est couramment utilisée lors de numération cellulaire. On utilise alors un hémocytomètre afin de compter les cellules dans un volume précis.
+Outre son effet tératogène dangereux pour l'utilisateur, le bleu trypan est également cytotoxique, et finira ainsi par colorer la totalité de la population cellulaire après un délai variable en fonction de la lignée considérée, habituellement de l'ordre de plusieurs heures. Il est utilisé par la quasi-totalité des automates de comptage cellulaires actuellement sur le marché, et reste au laboratoire la seule technique de dénombrement manuel utilisable en routine. L'emploi de méthodes par fluorescence (iodure de propidium, DAPI), basées sur le même principe d'exclusion et également génotoxiques est parfois privilégié lorsque les techniques d'imagerie idoines sont disponibles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bleu_de_trypan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_de_trypan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Coloration au bleu de trypan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette méthode est couramment utilisée lors de numération cellulaire. On utilise alors un hémocytomètre afin de compter les cellules dans un volume précis.
 On peut également utiliser cette coloration pour visualiser les cellules mortes et les hyphes de champignon et Stramenopiles.
 Cette méthode ne permet pas de distinguer les cellules mortes par apoptose des cellules nécrosées.
 </t>
